--- a/FRESH_COM/Input_data_community_other.xlsx
+++ b/FRESH_COM/Input_data_community_other.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20377"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B362FE-8241-4F13-9B0F-321982A1AB39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AEBA6E-A9F2-42C1-99AE-934BB2D944C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Distances" sheetId="1" r:id="rId1"/>
-    <sheet name="Alpha" sheetId="2" r:id="rId2"/>
+    <sheet name="Distances2" sheetId="3" r:id="rId2"/>
+    <sheet name="Alpha" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="16">
   <si>
     <t>Prosumer</t>
   </si>
@@ -56,17 +57,26 @@
     <t>Prosumer 10</t>
   </si>
   <si>
-    <t>Prosumer new</t>
+    <t>alpha</t>
   </si>
   <si>
-    <t>alpha</t>
+    <t>Prosumer G0</t>
+  </si>
+  <si>
+    <t>Prosumer H0_50</t>
+  </si>
+  <si>
+    <t>Prosumer H0_0</t>
+  </si>
+  <si>
+    <t>Prosumer H0_100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +88,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -103,13 +119,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -387,21 +404,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection sqref="A1:O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,10 +456,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -447,19 +476,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D2" s="2">
         <v>0.2</v>
       </c>
       <c r="E2" s="2">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="2">
         <v>0.6</v>
       </c>
       <c r="G2" s="2">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H2" s="2">
         <v>0.6</v>
@@ -473,31 +502,40 @@
       <c r="K2" s="2">
         <v>0.4</v>
       </c>
-      <c r="L2" s="2">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L2" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="E3" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="F3" s="2">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="G3" s="2">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H3" s="2">
         <v>0.6</v>
@@ -511,11 +549,20 @@
       <c r="K3" s="2">
         <v>0.4</v>
       </c>
-      <c r="L3" s="2">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L3" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -523,7 +570,7 @@
         <v>0.2</v>
       </c>
       <c r="C4" s="2">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -532,10 +579,10 @@
         <v>0.6</v>
       </c>
       <c r="F4" s="2">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G4" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H4" s="2">
         <v>0.6</v>
@@ -549,19 +596,28 @@
       <c r="K4" s="2">
         <v>0.4</v>
       </c>
-      <c r="L4" s="2">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L4" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="C5" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D5" s="2">
         <v>0.6</v>
@@ -570,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G5" s="2">
         <v>0.2</v>
@@ -587,11 +643,20 @@
       <c r="K5" s="2">
         <v>0.4</v>
       </c>
-      <c r="L5" s="2">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L5" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -599,19 +664,19 @@
         <v>0.6</v>
       </c>
       <c r="C6" s="2">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="D6" s="2">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E6" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="H6" s="2">
         <v>0.2</v>
@@ -625,28 +690,37 @@
       <c r="K6" s="2">
         <v>0.4</v>
       </c>
-      <c r="L6" s="2">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L6" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="C7" s="2">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D7" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="E7" s="2">
         <v>0.2</v>
       </c>
       <c r="F7" s="2">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -664,10 +738,19 @@
         <v>0.4</v>
       </c>
       <c r="L7" s="2">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -704,8 +787,17 @@
       <c r="L8" s="2">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -742,8 +834,17 @@
       <c r="L9" s="2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -780,8 +881,17 @@
       <c r="L10" s="2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -818,28 +928,37 @@
       <c r="L11" s="2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.4</v>
+        <v>13</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.2</v>
       </c>
       <c r="G12" s="2">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H12" s="2">
         <v>0.4</v>
@@ -854,6 +973,880 @@
         <v>0.2</v>
       </c>
       <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05B0B10-836F-43D8-BD1D-91E743201119}">
+  <dimension ref="A1:O15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="O15" s="2">
         <v>0</v>
       </c>
     </row>
@@ -862,36 +1855,36 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C0D237-18C0-4FCE-8A7D-1D042574B809}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -899,23 +1892,23 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -923,15 +1916,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -939,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -947,7 +1940,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -955,7 +1948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -963,11 +1956,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
         <v>0</v>
       </c>
     </row>
